--- a/tables/AdventCode.xlsx
+++ b/tables/AdventCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB39ECD-D5A6-0443-BE66-1DD8C3486F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458AB660-4B71-C44D-B07F-45B22CAB6DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25460" windowHeight="14160" xr2:uid="{F4DF8C39-CF9D-A146-A581-83BC876F97BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>link</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>https://github.com/jmarshallnz/advent_of_code/</t>
+  </si>
+  <si>
+    <t>François Michonneau</t>
+  </si>
+  <si>
+    <t>https://francoismichonneau.net/2024/12/advent-of-sql/</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245F8200-F879-724D-A0E9-7D624933F044}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,6 +520,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
